--- a/capiq_data/in_process_data/IQ4180463.xlsx
+++ b/capiq_data/in_process_data/IQ4180463.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97425C0-2049-4D6A-B047-7F5386295C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B3A15F-A3BD-48CE-9EC2-296C66FE852A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e0d49a33-cb64-40f0-a4ea-9f09c1ab015b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d8d89d72-f660-4a67-91d3-0a19874e04fb"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$69</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$69</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$69</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$69</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$69</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$69</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$69</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$69</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$69</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$69</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$69</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$69</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$69</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$69</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$69</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$69</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$69</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$69</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$69</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$69</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$69</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$69</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$69</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$69</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$69</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$69</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,87 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +814,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-38.942999999999998</v>
+        <v>-5.6475</v>
       </c>
       <c r="D2">
-        <v>483.60599999999999</v>
+        <v>286.28300000000002</v>
       </c>
       <c r="E2">
-        <v>7.8789999999999996</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>127.22199999999999</v>
+        <v>139.5575</v>
       </c>
       <c r="G2">
-        <v>138.24100000000001</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5572.3710000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>64.399000000000001</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3125.848</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +853,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>653.31700000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3831.8449999999998</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3204.085</v>
+        <v>1496.3869999999999</v>
       </c>
       <c r="Q2">
-        <v>-20.215</v>
+        <v>-21.468499999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="S2">
-        <v>13769</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1740.5260000000001</v>
+        <v>1019.727</v>
       </c>
       <c r="U2">
-        <v>55.046999999999997</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-6.4939999999999998</v>
+        <v>48.652000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>84.085999999999999</v>
+        <v>1.913</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +892,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-38.942999999999998</v>
+        <v>-5.6475</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-7.9329999999999998</v>
+        <v>-5.6475</v>
       </c>
       <c r="D3">
-        <v>495.51</v>
+        <v>305.48200000000003</v>
       </c>
       <c r="E3">
-        <v>10.76</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>152.04</v>
+        <v>139.5575</v>
       </c>
       <c r="G3">
-        <v>157.73099999999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5563.9709999999995</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>62.173000000000002</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2988.7080000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +933,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-135.613</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>782.11400000000003</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3825.2049999999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3081.83</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-5.8479999999999999</v>
+        <v>-21.468499999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1738.7660000000001</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>49.198999999999998</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>136.47</v>
+        <v>48.652000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-122.417</v>
+        <v>1.913</v>
       </c>
       <c r="Y3">
-        <v>4.0919999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-7.9329999999999998</v>
+        <v>-5.6475</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>29.224</v>
+        <v>40.320999999999998</v>
       </c>
       <c r="D4">
-        <v>568.58600000000001</v>
+        <v>410.90600000000001</v>
       </c>
       <c r="E4">
-        <v>9.3040000000000003</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>186.84100000000001</v>
+        <v>198.21100000000001</v>
       </c>
       <c r="G4">
-        <v>167.625</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5606.1090000000004</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>63.253999999999998</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2936.97</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1019,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>845.91600000000005</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3836.9850000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3072.6590000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.978</v>
+        <v>-52.783000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1769.124</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>60.177</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>97.74</v>
+        <v>-0.92400000000000004</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-9.3130000000000006</v>
+        <v>403.947</v>
       </c>
       <c r="Y4">
-        <v>2.7069999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>29.224</v>
+        <v>40.320999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>107.509</v>
+        <v>-37.734000000000002</v>
       </c>
       <c r="D5">
-        <v>666.63400000000001</v>
+        <v>335.61500000000001</v>
       </c>
       <c r="E5">
-        <v>12.505000000000001</v>
+        <v>10.805999999999999</v>
       </c>
       <c r="F5">
-        <v>267.35399999999998</v>
+        <v>63.610999999999997</v>
       </c>
       <c r="G5">
-        <v>145.12799999999999</v>
+        <v>276.61099999999999</v>
       </c>
       <c r="H5">
-        <v>5539.3919999999998</v>
+        <v>3484.9859999999999</v>
       </c>
       <c r="I5">
-        <v>64.61</v>
+        <v>69.875</v>
       </c>
       <c r="J5">
-        <v>2845.6080000000002</v>
+        <v>1604.3309999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,120 +1102,120 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>784.048</v>
+        <v>501.41300000000001</v>
       </c>
       <c r="O5">
-        <v>3694.4279999999999</v>
+        <v>2111.4780000000001</v>
       </c>
       <c r="P5">
-        <v>2991.6129999999998</v>
+        <v>1690.529</v>
       </c>
       <c r="Q5">
-        <v>-12.342000000000001</v>
+        <v>69.003</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>10241</v>
       </c>
       <c r="T5">
-        <v>1844.9639999999999</v>
+        <v>1373.508</v>
       </c>
       <c r="U5">
-        <v>47.835000000000001</v>
+        <v>172.42400000000001</v>
       </c>
       <c r="V5">
-        <v>89.335999999999999</v>
+        <v>49.948999999999998</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-81.706999999999994</v>
+        <v>162.46199999999999</v>
       </c>
       <c r="Y5">
-        <v>1.8380000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>107.509</v>
+        <v>-37.734000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-1.9410000000000001</v>
+        <v>5.9859999999999998</v>
       </c>
       <c r="D6">
-        <v>488.59399999999999</v>
+        <v>349.03100000000001</v>
       </c>
       <c r="E6">
-        <v>8.1590000000000007</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>145.21299999999999</v>
+        <v>136.92599999999999</v>
       </c>
       <c r="G6">
-        <v>152.143</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5562.4110000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>80.326999999999998</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2837.4989999999998</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.622</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-26.582999999999998</v>
       </c>
       <c r="N6">
-        <v>817.44600000000003</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3717.9479999999999</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3038.0810000000001</v>
+        <v>1690.529</v>
       </c>
       <c r="Q6">
-        <v>11.090999999999999</v>
+        <v>1.089</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="S6">
-        <v>14072</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1844.463</v>
+        <v>1373.508</v>
       </c>
       <c r="U6">
-        <v>58.926000000000002</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>33.444000000000003</v>
+        <v>67.436999999999998</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>45.122999999999998</v>
+        <v>123.2</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1224,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1.9410000000000001</v>
+        <v>7.2350000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>3.2839999999999998</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>515.42999999999995</v>
+        <v>373.81299999999999</v>
       </c>
       <c r="E7">
-        <v>7.9870000000000001</v>
+        <v>13.446999999999999</v>
       </c>
       <c r="F7">
-        <v>163.40299999999999</v>
+        <v>132.01</v>
       </c>
       <c r="G7">
-        <v>184.67</v>
+        <v>422.96499999999997</v>
       </c>
       <c r="H7">
-        <v>5580.9409999999998</v>
+        <v>3956.23</v>
       </c>
       <c r="I7">
-        <v>72.275000000000006</v>
+        <v>53.168999999999997</v>
       </c>
       <c r="J7">
-        <v>2762.8209999999999</v>
+        <v>1894.3889999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1265,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-277.77600000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>876.61099999999999</v>
+        <v>664.55399999999997</v>
       </c>
       <c r="O7">
-        <v>3711.2449999999999</v>
+        <v>2564.1190000000001</v>
       </c>
       <c r="P7">
-        <v>2917.4070000000002</v>
+        <v>2007.9290000000001</v>
       </c>
       <c r="Q7">
-        <v>5.0469999999999997</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="T7">
-        <v>1869.6959999999999</v>
+        <v>1392.1110000000001</v>
       </c>
       <c r="U7">
-        <v>63.972999999999999</v>
+        <v>215.06800000000001</v>
       </c>
       <c r="V7">
-        <v>158.434</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-129.054</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.95499999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3.2839999999999998</v>
+        <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>36.030999999999999</v>
+        <v>41.192</v>
       </c>
       <c r="D8">
-        <v>583.23400000000004</v>
+        <v>494.98099999999999</v>
       </c>
       <c r="E8">
-        <v>9.44</v>
+        <v>10.768000000000001</v>
       </c>
       <c r="F8">
-        <v>195.49299999999999</v>
+        <v>202.803</v>
       </c>
       <c r="G8">
-        <v>155.19800000000001</v>
+        <v>415.54300000000001</v>
       </c>
       <c r="H8">
-        <v>5846.1779999999999</v>
+        <v>4080.482</v>
       </c>
       <c r="I8">
-        <v>68.584000000000003</v>
+        <v>63.91</v>
       </c>
       <c r="J8">
-        <v>2760.9870000000001</v>
+        <v>2015.1010000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1351,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>990.16099999999994</v>
+        <v>631.58699999999999</v>
       </c>
       <c r="O8">
-        <v>4001.1239999999998</v>
+        <v>2651.6619999999998</v>
       </c>
       <c r="P8">
-        <v>2973.223</v>
+        <v>2147.7550000000001</v>
       </c>
       <c r="Q8">
-        <v>1.728</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1845.0540000000001</v>
+        <v>1428.82</v>
       </c>
       <c r="U8">
-        <v>65.700999999999993</v>
+        <v>251.47800000000001</v>
       </c>
       <c r="V8">
-        <v>97.353999999999999</v>
+        <v>3.359</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>55.014000000000003</v>
+        <v>145.54900000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1390,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>36.030999999999999</v>
+        <v>41.192</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>128.18799999999999</v>
+        <v>-32.793999999999997</v>
       </c>
       <c r="D9">
-        <v>674.41099999999994</v>
+        <v>411.89800000000002</v>
       </c>
       <c r="E9">
-        <v>15.119</v>
+        <v>11.691000000000001</v>
       </c>
       <c r="F9">
-        <v>280.33999999999997</v>
+        <v>121.387</v>
       </c>
       <c r="G9">
-        <v>187.624</v>
+        <v>189.12899999999999</v>
       </c>
       <c r="H9">
-        <v>5892.643</v>
+        <v>3984.2269999999999</v>
       </c>
       <c r="I9">
-        <v>66.960999999999999</v>
+        <v>73.003</v>
       </c>
       <c r="J9">
-        <v>2726.7420000000002</v>
+        <v>1965.9829999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1434,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>913.11400000000003</v>
+        <v>637.90899999999999</v>
       </c>
       <c r="O9">
-        <v>3881.1309999999999</v>
+        <v>2606.5230000000001</v>
       </c>
       <c r="P9">
-        <v>2910.8980000000001</v>
+        <v>2106.6770000000001</v>
       </c>
       <c r="Q9">
-        <v>2.9929999999999999</v>
+        <v>-191.06200000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>11948</v>
       </c>
       <c r="T9">
-        <v>2011.5119999999999</v>
+        <v>1377.704</v>
       </c>
       <c r="U9">
-        <v>68.694000000000003</v>
+        <v>60.415999999999997</v>
       </c>
       <c r="V9">
-        <v>120.735</v>
+        <v>-10.613</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-62.86</v>
+        <v>-40.823999999999998</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1473,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>128.18799999999999</v>
+        <v>-32.793999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1.0529999999999999</v>
+        <v>-28.795999999999999</v>
       </c>
       <c r="D10">
-        <v>503.17099999999999</v>
+        <v>426.55200000000002</v>
       </c>
       <c r="E10">
-        <v>15.061999999999999</v>
+        <v>12.44</v>
       </c>
       <c r="F10">
-        <v>158.577</v>
+        <v>141.03299999999999</v>
       </c>
       <c r="G10">
-        <v>164.929</v>
+        <v>224.2</v>
       </c>
       <c r="H10">
-        <v>5938.4269999999997</v>
+        <v>4062.989</v>
       </c>
       <c r="I10">
-        <v>79.126000000000005</v>
+        <v>51.256999999999998</v>
       </c>
       <c r="J10">
-        <v>2764.12</v>
+        <v>2003.636</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,40 +1514,40 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-320.84100000000001</v>
       </c>
       <c r="N10">
-        <v>945.08900000000006</v>
+        <v>680.75300000000004</v>
       </c>
       <c r="O10">
-        <v>3919.643</v>
+        <v>2686.8629999999998</v>
       </c>
       <c r="P10">
-        <v>2985.3530000000001</v>
+        <v>2145.018</v>
       </c>
       <c r="Q10">
-        <v>-23.193999999999999</v>
+        <v>15.733000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="S10">
-        <v>13800</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2018.7840000000001</v>
+        <v>1376.126</v>
       </c>
       <c r="U10">
-        <v>45.5</v>
+        <v>76.149000000000001</v>
       </c>
       <c r="V10">
-        <v>22.071000000000002</v>
+        <v>50.372999999999998</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>28.72</v>
+        <v>35.963999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1556,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1.0529999999999999</v>
+        <v>-28.795999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-96.394999999999996</v>
+        <v>-35.103999999999999</v>
       </c>
       <c r="D11">
-        <v>527.63099999999997</v>
+        <v>502.78</v>
       </c>
       <c r="E11">
-        <v>13.387</v>
+        <v>12.23</v>
       </c>
       <c r="F11">
-        <v>164.94200000000001</v>
+        <v>174.91800000000001</v>
       </c>
       <c r="G11">
-        <v>206.767</v>
+        <v>150.94399999999999</v>
       </c>
       <c r="H11">
-        <v>5991.73</v>
+        <v>4134.8360000000002</v>
       </c>
       <c r="I11">
-        <v>67.698999999999998</v>
+        <v>61.774000000000001</v>
       </c>
       <c r="J11">
-        <v>2416.58</v>
+        <v>2018.329</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1597,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1172.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1046.1420000000001</v>
+        <v>798.65499999999997</v>
       </c>
       <c r="O11">
-        <v>3590.1419999999998</v>
+        <v>2819.3020000000001</v>
       </c>
       <c r="P11">
-        <v>2638.3270000000002</v>
+        <v>2183.1469999999999</v>
       </c>
       <c r="Q11">
-        <v>35.701000000000001</v>
+        <v>-8.5079999999999991</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2401.5880000000002</v>
+        <v>1315.5340000000001</v>
       </c>
       <c r="U11">
-        <v>81.200999999999993</v>
+        <v>67.641000000000005</v>
       </c>
       <c r="V11">
-        <v>82.094999999999999</v>
+        <v>97.856999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>38.758000000000003</v>
+        <v>16.617999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1639,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>-96.394999999999996</v>
+        <v>-35.103999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-8.8409999999999993</v>
+        <v>49.000999999999998</v>
       </c>
       <c r="D12">
-        <v>644.43299999999999</v>
+        <v>597.48</v>
       </c>
       <c r="E12">
-        <v>16.37</v>
+        <v>13.395</v>
       </c>
       <c r="F12">
-        <v>223.35400000000001</v>
+        <v>225.94499999999999</v>
       </c>
       <c r="G12">
-        <v>201.01900000000001</v>
+        <v>155.93600000000001</v>
       </c>
       <c r="H12">
-        <v>6588.6329999999998</v>
+        <v>4128.6629999999996</v>
       </c>
       <c r="I12">
-        <v>97.1</v>
+        <v>65.888999999999996</v>
       </c>
       <c r="J12">
-        <v>2918.5659999999998</v>
+        <v>2026.85</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1683,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1171.0830000000001</v>
+        <v>737.47400000000005</v>
       </c>
       <c r="O12">
-        <v>4204.34</v>
+        <v>2766.4810000000002</v>
       </c>
       <c r="P12">
-        <v>3191.21</v>
+        <v>2191.7750000000001</v>
       </c>
       <c r="Q12">
-        <v>1.639</v>
+        <v>7.9880000000000004</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2384.2930000000001</v>
+        <v>1362.182</v>
       </c>
       <c r="U12">
-        <v>82.84</v>
+        <v>75.629000000000005</v>
       </c>
       <c r="V12">
-        <v>170.685</v>
+        <v>17.666</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>504.822</v>
+        <v>5.0789999999999997</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1722,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>-8.8409999999999993</v>
+        <v>49.000999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>170.858</v>
+        <v>-116</v>
       </c>
       <c r="D13">
-        <v>797.88499999999999</v>
+        <v>449.49700000000001</v>
       </c>
       <c r="E13">
-        <v>17.716999999999999</v>
+        <v>10.244</v>
       </c>
       <c r="F13">
-        <v>341.78300000000002</v>
+        <v>116.502</v>
       </c>
       <c r="G13">
-        <v>187.05099999999999</v>
+        <v>137.636</v>
       </c>
       <c r="H13">
-        <v>6605.549</v>
+        <v>4629.6239999999998</v>
       </c>
       <c r="I13">
-        <v>98.558999999999997</v>
+        <v>116.947</v>
       </c>
       <c r="J13">
-        <v>2832.71</v>
+        <v>2405.357</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1766,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1077.7449999999999</v>
+        <v>767.45600000000002</v>
       </c>
       <c r="O13">
-        <v>4030.6610000000001</v>
+        <v>3174.5569999999998</v>
       </c>
       <c r="P13">
-        <v>3116.172</v>
+        <v>2559.9949999999999</v>
       </c>
       <c r="Q13">
-        <v>-25.88</v>
+        <v>-12.099</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>14197</v>
       </c>
       <c r="T13">
-        <v>2574.8879999999999</v>
+        <v>1455.067</v>
       </c>
       <c r="U13">
-        <v>56.96</v>
+        <v>63.53</v>
       </c>
       <c r="V13">
-        <v>145.56299999999999</v>
+        <v>-18.391999999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-94.697999999999993</v>
+        <v>554.19399999999996</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1805,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>170.858</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>36.091999999999999</v>
+        <v>-60.762999999999998</v>
       </c>
       <c r="D14">
-        <v>600.34500000000003</v>
+        <v>490.80900000000003</v>
       </c>
       <c r="E14">
-        <v>18.260000000000002</v>
+        <v>9.4640000000000004</v>
       </c>
       <c r="F14">
-        <v>182.55600000000001</v>
+        <v>160.63900000000001</v>
       </c>
       <c r="G14">
-        <v>182.92400000000001</v>
+        <v>116.336</v>
       </c>
       <c r="H14">
-        <v>6650.9780000000001</v>
+        <v>4587.2939999999999</v>
       </c>
       <c r="I14">
-        <v>86.787999999999997</v>
+        <v>73.525999999999996</v>
       </c>
       <c r="J14">
-        <v>2842.5880000000002</v>
+        <v>2407.1590000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,40 +1846,40 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-1616.7950000000001</v>
       </c>
       <c r="N14">
-        <v>1075.4880000000001</v>
+        <v>779.73199999999997</v>
       </c>
       <c r="O14">
-        <v>4019.712</v>
+        <v>3189.88</v>
       </c>
       <c r="P14">
-        <v>3130.87</v>
+        <v>2562.4639999999999</v>
       </c>
       <c r="Q14">
-        <v>-0.49299999999999999</v>
+        <v>-22.016999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="S14">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2631.2660000000001</v>
+        <v>1397.414</v>
       </c>
       <c r="U14">
-        <v>56.466999999999999</v>
+        <v>41.512999999999998</v>
       </c>
       <c r="V14">
-        <v>76.938000000000002</v>
+        <v>5.2690000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-18.344999999999999</v>
+        <v>-7.2960000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1888,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>36.091999999999999</v>
+        <v>-60.762999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>51.267000000000003</v>
+        <v>-24.599</v>
       </c>
       <c r="D15">
-        <v>664.02800000000002</v>
+        <v>553.05999999999995</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>11.637</v>
       </c>
       <c r="F15">
-        <v>218.11799999999999</v>
+        <v>203.571</v>
       </c>
       <c r="G15">
-        <v>187.22499999999999</v>
+        <v>161.54</v>
       </c>
       <c r="H15">
-        <v>7318.8990000000003</v>
+        <v>4615.799</v>
       </c>
       <c r="I15">
-        <v>79.59</v>
+        <v>67.317999999999998</v>
       </c>
       <c r="J15">
-        <v>3292.2170000000001</v>
+        <v>2401.3150000000001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1929,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-258.125</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1256.8900000000001</v>
+        <v>833.38900000000001</v>
       </c>
       <c r="O15">
-        <v>4648.9340000000002</v>
+        <v>3239.1579999999999</v>
       </c>
       <c r="P15">
-        <v>3658.5039999999999</v>
+        <v>2557.3719999999998</v>
       </c>
       <c r="Q15">
-        <v>8.2929999999999993</v>
+        <v>27.167000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2669.9650000000001</v>
+        <v>1376.6410000000001</v>
       </c>
       <c r="U15">
-        <v>64.760000000000005</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="V15">
-        <v>228.13399999999999</v>
+        <v>73.42</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>526.46900000000005</v>
+        <v>-20.36</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +1971,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>51.267000000000003</v>
+        <v>-24.599</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>111.616</v>
+        <v>-8.5939999999999994</v>
       </c>
       <c r="D16">
-        <v>765.92700000000002</v>
+        <v>631.43200000000002</v>
       </c>
       <c r="E16">
-        <v>27.145</v>
+        <v>12.005000000000001</v>
       </c>
       <c r="F16">
-        <v>295.13099999999997</v>
+        <v>253.42099999999999</v>
       </c>
       <c r="G16">
-        <v>210.22399999999999</v>
+        <v>126.971</v>
       </c>
       <c r="H16">
-        <v>7314.8029999999999</v>
+        <v>4622.1229999999996</v>
       </c>
       <c r="I16">
-        <v>102.755</v>
+        <v>73.978999999999999</v>
       </c>
       <c r="J16">
-        <v>3132.9180000000001</v>
+        <v>2478.482</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2015,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1379.9</v>
+        <v>772.20399999999995</v>
       </c>
       <c r="O16">
-        <v>4600.0219999999999</v>
+        <v>3255.1190000000001</v>
       </c>
       <c r="P16">
-        <v>3509.03</v>
+        <v>2637.8339999999998</v>
       </c>
       <c r="Q16">
-        <v>-1.2769999999999999</v>
+        <v>-20.798999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2714.7809999999999</v>
+        <v>1367.0039999999999</v>
       </c>
       <c r="U16">
-        <v>63.482999999999997</v>
+        <v>47.881</v>
       </c>
       <c r="V16">
-        <v>290.97399999999999</v>
+        <v>6.2560000000000002</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-250.995</v>
+        <v>48.366999999999997</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2054,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>111.616</v>
+        <v>-8.5939999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>201.078</v>
+        <v>-133.006</v>
       </c>
       <c r="D17">
-        <v>907.01700000000005</v>
+        <v>501.59300000000002</v>
       </c>
       <c r="E17">
-        <v>25.936</v>
+        <v>8.173</v>
       </c>
       <c r="F17">
-        <v>395.71899999999999</v>
+        <v>88.596999999999994</v>
       </c>
       <c r="G17">
-        <v>190.636</v>
+        <v>119.42400000000001</v>
       </c>
       <c r="H17">
-        <v>7374.049</v>
+        <v>5033.6980000000003</v>
       </c>
       <c r="I17">
-        <v>99.884</v>
+        <v>88.715000000000003</v>
       </c>
       <c r="J17">
-        <v>3082.346</v>
+        <v>2977.8879999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2098,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1303.0239999999999</v>
+        <v>815.48299999999995</v>
       </c>
       <c r="O17">
-        <v>4490.0649999999996</v>
+        <v>3798.172</v>
       </c>
       <c r="P17">
-        <v>3463.9110000000001</v>
+        <v>3169.06</v>
       </c>
       <c r="Q17">
-        <v>-7.6139999999999999</v>
+        <v>-7.59</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>14290</v>
       </c>
       <c r="T17">
-        <v>2883.9839999999999</v>
+        <v>1235.5260000000001</v>
       </c>
       <c r="U17">
-        <v>55.869</v>
+        <v>40.290999999999997</v>
       </c>
       <c r="V17">
-        <v>181.61600000000001</v>
+        <v>-48.613999999999997</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-111.959</v>
+        <v>501.29700000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2137,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>201.078</v>
+        <v>-133.006</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-25.609000000000002</v>
+        <v>-145.01300000000001</v>
       </c>
       <c r="D18">
-        <v>788.90899999999999</v>
+        <v>511.57299999999998</v>
       </c>
       <c r="E18">
-        <v>32.432000000000002</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>270.28899999999999</v>
+        <v>106.999</v>
       </c>
       <c r="G18">
-        <v>283.73500000000001</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>11468.995999999999</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>101.983</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5506.18</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,40 +2178,40 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-1186.962</v>
       </c>
       <c r="N18">
-        <v>2086.5990000000002</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>7950.183</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>6092.6859999999997</v>
+        <v>3169.06</v>
       </c>
       <c r="Q18">
-        <v>28.954999999999998</v>
+        <v>-7.3019999999999996</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="S18">
-        <v>24900</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3518.8130000000001</v>
+        <v>1235.5260000000001</v>
       </c>
       <c r="U18">
-        <v>84.823999999999998</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>-65.123000000000005</v>
+        <v>-59.164999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1025.9010000000001</v>
+        <v>71.454999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2220,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>-25.609000000000002</v>
+        <v>-145.01300000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-21.456</v>
+        <v>-26.99</v>
       </c>
       <c r="D19">
-        <v>938.18200000000002</v>
+        <v>524.98900000000003</v>
       </c>
       <c r="E19">
-        <v>30.957999999999998</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>314.48200000000003</v>
+        <v>116.654</v>
       </c>
       <c r="G19">
-        <v>324.62599999999998</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>11592.736999999999</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>84.769000000000005</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5383.94</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2261,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-477.22399999999999</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2373.7739999999999</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>8113.3450000000003</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>5970.3029999999999</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>36.597999999999999</v>
+        <v>104.41800000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3479.3919999999998</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>121.422</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>314.79000000000002</v>
+        <v>76.36</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-205.06100000000001</v>
+        <v>59.612000000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2303,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-21.456</v>
+        <v>-26.99</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>158.494</v>
+        <v>171.18600000000001</v>
       </c>
       <c r="D20">
-        <v>1085.433</v>
+        <v>638.98900000000003</v>
       </c>
       <c r="E20">
-        <v>36.801000000000002</v>
+        <v>34.344999999999999</v>
       </c>
       <c r="F20">
-        <v>429.154</v>
+        <v>207.00700000000001</v>
       </c>
       <c r="G20">
-        <v>399.91699999999997</v>
+        <v>282.69299999999998</v>
       </c>
       <c r="H20">
-        <v>11687.387000000001</v>
+        <v>5176.4759999999997</v>
       </c>
       <c r="I20">
-        <v>55.061</v>
+        <v>69.397000000000006</v>
       </c>
       <c r="J20">
-        <v>5182.1580000000004</v>
+        <v>2427.3000000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2347,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2474.0880000000002</v>
+        <v>997.64700000000005</v>
       </c>
       <c r="O20">
-        <v>7946.9319999999998</v>
+        <v>3433.62</v>
       </c>
       <c r="P20">
-        <v>5774.1329999999998</v>
+        <v>2615.1379999999999</v>
       </c>
       <c r="Q20">
-        <v>51.536000000000001</v>
+        <v>32.966000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3740.4549999999999</v>
+        <v>1742.856</v>
       </c>
       <c r="U20">
-        <v>172.958</v>
+        <v>170.37299999999999</v>
       </c>
       <c r="V20">
-        <v>396.90499999999997</v>
+        <v>7.0430000000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-213.44399999999999</v>
+        <v>101.76</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2386,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>158.494</v>
+        <v>171.18600000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>251.78700000000001</v>
+        <v>-210.98599999999999</v>
       </c>
       <c r="D21">
-        <v>1284.9100000000001</v>
+        <v>430.85</v>
       </c>
       <c r="E21">
-        <v>41.994999999999997</v>
+        <v>6.0469999999999997</v>
       </c>
       <c r="F21">
-        <v>570.50699999999995</v>
+        <v>94.46</v>
       </c>
       <c r="G21">
-        <v>441.19600000000003</v>
+        <v>249.72200000000001</v>
       </c>
       <c r="H21">
-        <v>11747.165000000001</v>
+        <v>5047.1409999999996</v>
       </c>
       <c r="I21">
-        <v>44.262</v>
+        <v>70.412000000000006</v>
       </c>
       <c r="J21">
-        <v>5101.634</v>
+        <v>2474.0140000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2430,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2431.2820000000002</v>
+        <v>991.80799999999999</v>
       </c>
       <c r="O21">
-        <v>7828.2709999999997</v>
+        <v>3497.3420000000001</v>
       </c>
       <c r="P21">
-        <v>5694.7640000000001</v>
+        <v>2665.8009999999999</v>
       </c>
       <c r="Q21">
-        <v>57.222000000000001</v>
+        <v>15.343999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>12967</v>
       </c>
       <c r="T21">
-        <v>3918.8939999999998</v>
+        <v>1549.799</v>
       </c>
       <c r="U21">
-        <v>230.18</v>
+        <v>185.71700000000001</v>
       </c>
       <c r="V21">
-        <v>261.69099999999997</v>
+        <v>-47.534999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-79.057000000000002</v>
+        <v>102.13200000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2469,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>251.78700000000001</v>
+        <v>-210.98599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>38.311999999999998</v>
+        <v>5.1890000000000001</v>
       </c>
       <c r="D22">
-        <v>1036.5229999999999</v>
+        <v>424.45499999999998</v>
       </c>
       <c r="E22">
-        <v>44.996000000000002</v>
+        <v>5.8949999999999996</v>
       </c>
       <c r="F22">
-        <v>375.45600000000002</v>
+        <v>114.205</v>
       </c>
       <c r="G22">
-        <v>340.411</v>
+        <v>220.928</v>
       </c>
       <c r="H22">
-        <v>12264.757</v>
+        <v>4755.7479999999996</v>
       </c>
       <c r="I22">
-        <v>45.488</v>
+        <v>39.79</v>
       </c>
       <c r="J22">
-        <v>5771.0919999999996</v>
+        <v>2592.7049999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,40 +2510,40 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-73.861999999999995</v>
       </c>
       <c r="N22">
-        <v>2366.5189999999998</v>
+        <v>578.03200000000004</v>
       </c>
       <c r="O22">
-        <v>8483.8770000000004</v>
+        <v>3209.1619999999998</v>
       </c>
       <c r="P22">
-        <v>6405.0110000000004</v>
+        <v>2606.277</v>
       </c>
       <c r="Q22">
-        <v>-114.24299999999999</v>
+        <v>-34.280999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="S22">
-        <v>26500</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>3780.88</v>
+        <v>1546.586</v>
       </c>
       <c r="U22">
-        <v>115.937</v>
+        <v>151.43600000000001</v>
       </c>
       <c r="V22">
-        <v>68.792000000000002</v>
+        <v>4.0830000000000002</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>692.75</v>
+        <v>17.712</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2552,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>38.311999999999998</v>
+        <v>5.1890000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>73.228999999999999</v>
+        <v>15.419</v>
       </c>
       <c r="D23">
-        <v>1077.6320000000001</v>
+        <v>478.41699999999997</v>
       </c>
       <c r="E23">
-        <v>45.613</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="F23">
-        <v>413.15100000000001</v>
+        <v>145.809</v>
       </c>
       <c r="G23">
-        <v>392.916</v>
+        <v>330.50700000000001</v>
       </c>
       <c r="H23">
-        <v>12405.739</v>
+        <v>4943.51</v>
       </c>
       <c r="I23">
-        <v>54.25</v>
+        <v>42.75</v>
       </c>
       <c r="J23">
-        <v>5674.634</v>
+        <v>2609.866</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2593,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-308.24799999999999</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2490.0889999999999</v>
+        <v>596.57399999999996</v>
       </c>
       <c r="O23">
-        <v>8478.1280000000006</v>
+        <v>3296.3780000000002</v>
       </c>
       <c r="P23">
-        <v>6308.4690000000001</v>
+        <v>2613.4009999999998</v>
       </c>
       <c r="Q23">
-        <v>38.93</v>
+        <v>101.544</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3927.6109999999999</v>
+        <v>1647.1320000000001</v>
       </c>
       <c r="U23">
-        <v>154.86699999999999</v>
+        <v>252.98</v>
       </c>
       <c r="V23">
-        <v>330.096</v>
+        <v>22.228000000000002</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-157.97200000000001</v>
+        <v>94.195999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2635,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>73.228999999999999</v>
+        <v>15.419</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>145.24600000000001</v>
+        <v>85.625</v>
       </c>
       <c r="D24">
-        <v>1186.835</v>
+        <v>550.67600000000004</v>
       </c>
       <c r="E24">
-        <v>60.366</v>
+        <v>7.4980000000000002</v>
       </c>
       <c r="F24">
-        <v>480.935</v>
+        <v>205.845</v>
       </c>
       <c r="G24">
-        <v>440.03</v>
+        <v>229.696</v>
       </c>
       <c r="H24">
-        <v>12957.749</v>
+        <v>4873.7039999999997</v>
       </c>
       <c r="I24">
-        <v>46.511000000000003</v>
+        <v>34.008000000000003</v>
       </c>
       <c r="J24">
-        <v>5975.116</v>
+        <v>2529.5169999999998</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2679,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2592.2640000000001</v>
+        <v>517.154</v>
       </c>
       <c r="O24">
-        <v>8839.3880000000008</v>
+        <v>3138.3119999999999</v>
       </c>
       <c r="P24">
-        <v>6561.2479999999996</v>
+        <v>2545.7800000000002</v>
       </c>
       <c r="Q24">
-        <v>-8.9030000000000005</v>
+        <v>-109.34</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4118.3609999999999</v>
+        <v>1735.3920000000001</v>
       </c>
       <c r="U24">
-        <v>145.964</v>
+        <v>143.63999999999999</v>
       </c>
       <c r="V24">
-        <v>417.94200000000001</v>
+        <v>58.597000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>238.989</v>
+        <v>-104.542</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2718,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>145.24600000000001</v>
+        <v>85.625</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>342.37799999999999</v>
+        <v>-39</v>
       </c>
       <c r="D25">
-        <v>1484.7360000000001</v>
+        <v>401.65600000000001</v>
       </c>
       <c r="E25">
-        <v>55.838000000000001</v>
+        <v>7.8680000000000003</v>
       </c>
       <c r="F25">
-        <v>700.00199999999995</v>
+        <v>99.891000000000005</v>
       </c>
       <c r="G25">
-        <v>436.69900000000001</v>
+        <v>151.56200000000001</v>
       </c>
       <c r="H25">
-        <v>12943.34</v>
+        <v>4811.348</v>
       </c>
       <c r="I25">
-        <v>51.494</v>
+        <v>28.376000000000001</v>
       </c>
       <c r="J25">
-        <v>5817.8419999999996</v>
+        <v>2554.105</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2762,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2348.989</v>
+        <v>494.03800000000001</v>
       </c>
       <c r="O25">
-        <v>8406.6129999999994</v>
+        <v>3106.797</v>
       </c>
       <c r="P25">
-        <v>6388.6109999999999</v>
+        <v>2567.777</v>
       </c>
       <c r="Q25">
-        <v>9.4670000000000005</v>
+        <v>-93.488</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>11907</v>
       </c>
       <c r="T25">
-        <v>4536.7269999999999</v>
+        <v>1704.5509999999999</v>
       </c>
       <c r="U25">
-        <v>155.43100000000001</v>
+        <v>50.152000000000001</v>
       </c>
       <c r="V25">
-        <v>340.721</v>
+        <v>-34.182000000000002</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-180.04599999999999</v>
+        <v>-27.084</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>342.37799999999999</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>72.231999999999999</v>
+        <v>-16.132000000000001</v>
       </c>
       <c r="D26">
-        <v>1125.1369999999999</v>
+        <v>416.50200000000001</v>
       </c>
       <c r="E26">
-        <v>63.215000000000003</v>
+        <v>7.452</v>
       </c>
       <c r="F26">
-        <v>430.02699999999999</v>
+        <v>122.33799999999999</v>
       </c>
       <c r="G26">
-        <v>411.09300000000002</v>
+        <v>180.75899999999999</v>
       </c>
       <c r="H26">
-        <v>12973.911</v>
+        <v>4824.2839999999997</v>
       </c>
       <c r="I26">
-        <v>38.002000000000002</v>
+        <v>39.744999999999997</v>
       </c>
       <c r="J26">
-        <v>5839.6450000000004</v>
+        <v>2474.9960000000001</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-65.527000000000001</v>
       </c>
       <c r="N26">
-        <v>2312.8180000000002</v>
+        <v>600.84900000000005</v>
       </c>
       <c r="O26">
-        <v>8436.1849999999995</v>
+        <v>3133.8530000000001</v>
       </c>
       <c r="P26">
-        <v>6403.1689999999999</v>
+        <v>2500.556</v>
       </c>
       <c r="Q26">
-        <v>-27.084</v>
+        <v>40.337000000000003</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="S26">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>4537.7259999999997</v>
+        <v>1690.431</v>
       </c>
       <c r="U26">
-        <v>128.34700000000001</v>
+        <v>90.489000000000004</v>
       </c>
       <c r="V26">
-        <v>150.90700000000001</v>
+        <v>133.46799999999999</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0.68700000000000006</v>
+        <v>-66.606999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>72.231999999999999</v>
+        <v>-16.132000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>61.91</v>
+        <v>-14.94</v>
       </c>
       <c r="D27">
-        <v>1150.7809999999999</v>
+        <v>477.91500000000002</v>
       </c>
       <c r="E27">
-        <v>47.948999999999998</v>
+        <v>8.6489999999999991</v>
       </c>
       <c r="F27">
-        <v>430.983</v>
+        <v>156.52099999999999</v>
       </c>
       <c r="G27">
-        <v>488.351</v>
+        <v>180.21899999999999</v>
       </c>
       <c r="H27">
-        <v>13076.251</v>
+        <v>5538.4210000000003</v>
       </c>
       <c r="I27">
-        <v>71.123000000000005</v>
+        <v>47.84</v>
       </c>
       <c r="J27">
-        <v>5644.6279999999997</v>
+        <v>3024.9479999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-465.23700000000002</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2506.759</v>
+        <v>790.17899999999997</v>
       </c>
       <c r="O27">
-        <v>8450.9689999999991</v>
+        <v>3877.357</v>
       </c>
       <c r="P27">
-        <v>6179.2920000000004</v>
+        <v>3174.4789999999998</v>
       </c>
       <c r="Q27">
-        <v>91.441999999999993</v>
+        <v>8.952</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4625.2820000000002</v>
+        <v>1661.0640000000001</v>
       </c>
       <c r="U27">
-        <v>219.78899999999999</v>
+        <v>99.441000000000003</v>
       </c>
       <c r="V27">
-        <v>434.94400000000002</v>
+        <v>180.274</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-225.72499999999999</v>
+        <v>656.14800000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +2967,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>61.91</v>
+        <v>-14.94</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>198.47300000000001</v>
+        <v>93.001000000000005</v>
       </c>
       <c r="D28">
-        <v>1344.1030000000001</v>
+        <v>634.10500000000002</v>
       </c>
       <c r="E28">
-        <v>50.359000000000002</v>
+        <v>7.2539999999999996</v>
       </c>
       <c r="F28">
-        <v>591.86099999999999</v>
+        <v>258.87099999999998</v>
       </c>
       <c r="G28">
-        <v>513.91600000000005</v>
+        <v>150.68100000000001</v>
       </c>
       <c r="H28">
-        <v>13946.175999999999</v>
+        <v>5479.1989999999996</v>
       </c>
       <c r="I28">
-        <v>47.241999999999997</v>
+        <v>50.942999999999998</v>
       </c>
       <c r="J28">
-        <v>6083.2259999999997</v>
+        <v>2789.875</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,78 +3011,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2654.127</v>
+        <v>859.279</v>
       </c>
       <c r="O28">
-        <v>8954.4269999999997</v>
+        <v>3715.25</v>
       </c>
       <c r="P28">
-        <v>6686.2719999999999</v>
+        <v>3051.4870000000001</v>
       </c>
       <c r="Q28">
-        <v>-0.47399999999999998</v>
+        <v>-24.178999999999998</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>13833</v>
       </c>
       <c r="T28">
-        <v>4991.7489999999998</v>
+        <v>1763.9490000000001</v>
       </c>
       <c r="U28">
-        <v>219.315</v>
+        <v>75.262</v>
       </c>
       <c r="V28">
-        <v>484.78699999999998</v>
+        <v>123.175</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>497.48200000000003</v>
+        <v>-121.68899999999999</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>6.3070000000000004</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>198.47300000000001</v>
+        <v>93.001000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>400.69200000000001</v>
+        <v>-38.942999999999998</v>
       </c>
       <c r="D29">
-        <v>1651.7380000000001</v>
+        <v>483.60599999999999</v>
       </c>
       <c r="E29">
-        <v>56.764000000000003</v>
+        <v>7.8789999999999996</v>
       </c>
       <c r="F29">
-        <v>813.57299999999998</v>
+        <v>127.22199999999999</v>
       </c>
       <c r="G29">
-        <v>864.83399999999995</v>
+        <v>138.24100000000001</v>
       </c>
       <c r="H29">
-        <v>14265.117</v>
+        <v>5572.3710000000001</v>
       </c>
       <c r="I29">
-        <v>45.058999999999997</v>
+        <v>64.399000000000001</v>
       </c>
       <c r="J29">
-        <v>6002.8770000000004</v>
+        <v>3125.848</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3094,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2528.6619999999998</v>
+        <v>653.31700000000001</v>
       </c>
       <c r="O29">
-        <v>8727.5130000000008</v>
+        <v>3831.8449999999998</v>
       </c>
       <c r="P29">
-        <v>6610.58</v>
+        <v>3204.085</v>
       </c>
       <c r="Q29">
-        <v>303.589</v>
+        <v>-20.215</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>13769</v>
       </c>
       <c r="T29">
-        <v>5537.6040000000003</v>
+        <v>1740.5260000000001</v>
       </c>
       <c r="U29">
-        <v>522.904</v>
+        <v>55.046999999999997</v>
       </c>
       <c r="V29">
-        <v>439.90699999999998</v>
+        <v>-6.4939999999999998</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-72.069000000000003</v>
+        <v>84.085999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3133,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>400.69200000000001</v>
+        <v>-38.942999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>98.796999999999997</v>
+        <v>-7.9329999999999998</v>
       </c>
       <c r="D30">
-        <v>1249.5530000000001</v>
+        <v>495.51</v>
       </c>
       <c r="E30">
-        <v>43.960999999999999</v>
+        <v>10.76</v>
       </c>
       <c r="F30">
-        <v>496.11399999999998</v>
+        <v>152.04</v>
       </c>
       <c r="G30">
-        <v>518.33699999999999</v>
+        <v>157.73099999999999</v>
       </c>
       <c r="H30">
-        <v>14094.869000000001</v>
+        <v>5563.9709999999995</v>
       </c>
       <c r="I30">
-        <v>53.433</v>
+        <v>62.173000000000002</v>
       </c>
       <c r="J30">
-        <v>5643.009</v>
+        <v>2988.7080000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3174,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-135.613</v>
       </c>
       <c r="N30">
-        <v>2490.0210000000002</v>
+        <v>782.11400000000003</v>
       </c>
       <c r="O30">
-        <v>8345.1029999999992</v>
+        <v>3825.2049999999999</v>
       </c>
       <c r="P30">
-        <v>6308.7849999999999</v>
+        <v>3081.83</v>
       </c>
       <c r="Q30">
-        <v>-346.714</v>
+        <v>-5.8479999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="S30">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>5749.7659999999996</v>
+        <v>1738.7660000000001</v>
       </c>
       <c r="U30">
-        <v>176.19</v>
+        <v>49.198999999999998</v>
       </c>
       <c r="V30">
-        <v>241.60900000000001</v>
+        <v>136.47</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-348.19400000000002</v>
+        <v>-122.417</v>
       </c>
       <c r="Y30">
-        <v>45.383000000000003</v>
+        <v>4.0919999999999996</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>98.796999999999997</v>
+        <v>-7.9329999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>103.155</v>
+        <v>29.224</v>
       </c>
       <c r="D31">
-        <v>1293.403</v>
+        <v>568.58600000000001</v>
       </c>
       <c r="E31">
-        <v>41.158999999999999</v>
+        <v>9.3040000000000003</v>
       </c>
       <c r="F31">
-        <v>525.31200000000001</v>
+        <v>186.84100000000001</v>
       </c>
       <c r="G31">
-        <v>760.77499999999998</v>
+        <v>167.625</v>
       </c>
       <c r="H31">
-        <v>14484.985000000001</v>
+        <v>5606.1090000000004</v>
       </c>
       <c r="I31">
-        <v>65.572999999999993</v>
+        <v>63.253999999999998</v>
       </c>
       <c r="J31">
-        <v>5580.29</v>
+        <v>2936.97</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3257,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-252.82599999999999</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3093.5430000000001</v>
+        <v>845.91600000000005</v>
       </c>
       <c r="O31">
-        <v>8845.9120000000003</v>
+        <v>3836.9850000000001</v>
       </c>
       <c r="P31">
-        <v>6352.8090000000002</v>
+        <v>3072.6590000000001</v>
       </c>
       <c r="Q31">
-        <v>125.55800000000001</v>
+        <v>10.978</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5639.0730000000003</v>
+        <v>1769.124</v>
       </c>
       <c r="U31">
-        <v>301.74799999999999</v>
+        <v>60.177</v>
       </c>
       <c r="V31">
-        <v>610.76099999999997</v>
+        <v>97.74</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-341.57799999999997</v>
+        <v>-9.3130000000000006</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>2.7069999999999999</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>103.155</v>
+        <v>29.224</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>226.67599999999999</v>
+        <v>107.509</v>
       </c>
       <c r="D32">
-        <v>1522.174</v>
+        <v>666.63400000000001</v>
       </c>
       <c r="E32">
-        <v>44.212000000000003</v>
+        <v>12.505000000000001</v>
       </c>
       <c r="F32">
-        <v>659.39099999999996</v>
+        <v>267.35399999999998</v>
       </c>
       <c r="G32">
-        <v>671.49</v>
+        <v>145.12799999999999</v>
       </c>
       <c r="H32">
-        <v>15329.646000000001</v>
+        <v>5539.3919999999998</v>
       </c>
       <c r="I32">
-        <v>54.676000000000002</v>
+        <v>64.61</v>
       </c>
       <c r="J32">
-        <v>6149.2209999999995</v>
+        <v>2845.6080000000002</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3343,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3306.165</v>
+        <v>784.048</v>
       </c>
       <c r="O32">
-        <v>9642.8529999999992</v>
+        <v>3694.4279999999999</v>
       </c>
       <c r="P32">
-        <v>6828.9880000000003</v>
+        <v>2991.6129999999998</v>
       </c>
       <c r="Q32">
-        <v>-96.741</v>
+        <v>-12.342000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5686.7929999999997</v>
+        <v>1844.9639999999999</v>
       </c>
       <c r="U32">
-        <v>205.00700000000001</v>
+        <v>47.835000000000001</v>
       </c>
       <c r="V32">
-        <v>643.04</v>
+        <v>89.335999999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>302.73099999999999</v>
+        <v>-81.706999999999994</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1.8380000000000001</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>226.67599999999999</v>
+        <v>107.509</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>470.37799999999999</v>
+        <v>-1.9410000000000001</v>
       </c>
       <c r="D33">
-        <v>1858.356</v>
+        <v>488.59399999999999</v>
       </c>
       <c r="E33">
-        <v>46.561999999999998</v>
+        <v>8.1590000000000007</v>
       </c>
       <c r="F33">
-        <v>929.41200000000003</v>
+        <v>145.21299999999999</v>
       </c>
       <c r="G33">
-        <v>727.40800000000002</v>
+        <v>152.143</v>
       </c>
       <c r="H33">
-        <v>15316.121999999999</v>
+        <v>5562.4110000000001</v>
       </c>
       <c r="I33">
-        <v>59.423000000000002</v>
+        <v>80.326999999999998</v>
       </c>
       <c r="J33">
-        <v>5875.2520000000004</v>
+        <v>2837.4989999999998</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3426,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3052.1790000000001</v>
+        <v>817.44600000000003</v>
       </c>
       <c r="O33">
-        <v>9118.0319999999992</v>
+        <v>3717.9479999999999</v>
       </c>
       <c r="P33">
-        <v>6555.16</v>
+        <v>3038.0810000000001</v>
       </c>
       <c r="Q33">
-        <v>81.453999999999994</v>
+        <v>11.090999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>14072</v>
       </c>
       <c r="T33">
-        <v>6198.09</v>
+        <v>1844.463</v>
       </c>
       <c r="U33">
-        <v>286.46100000000001</v>
+        <v>58.926000000000002</v>
       </c>
       <c r="V33">
-        <v>466.3</v>
+        <v>33.444000000000003</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-274.85599999999999</v>
+        <v>45.122999999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3465,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>470.37799999999999</v>
+        <v>-1.9410000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>154.63399999999999</v>
+        <v>3.2839999999999998</v>
       </c>
       <c r="D34">
-        <v>1381.193</v>
+        <v>515.42999999999995</v>
       </c>
       <c r="E34">
-        <v>55.249000000000002</v>
+        <v>7.9870000000000001</v>
       </c>
       <c r="F34">
-        <v>563.93499999999995</v>
+        <v>163.40299999999999</v>
       </c>
       <c r="G34">
-        <v>550.31299999999999</v>
+        <v>184.67</v>
       </c>
       <c r="H34">
-        <v>15205.97</v>
+        <v>5580.9409999999998</v>
       </c>
       <c r="I34">
-        <v>159.56399999999999</v>
+        <v>72.275000000000006</v>
       </c>
       <c r="J34">
-        <v>5771.3490000000002</v>
+        <v>2762.8209999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3506,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-277.77600000000001</v>
       </c>
       <c r="N34">
-        <v>3150.5</v>
+        <v>876.61099999999999</v>
       </c>
       <c r="O34">
-        <v>9242.9689999999991</v>
+        <v>3711.2449999999999</v>
       </c>
       <c r="P34">
-        <v>6492.0910000000003</v>
+        <v>2917.4070000000002</v>
       </c>
       <c r="Q34">
-        <v>-122.61</v>
+        <v>5.0469999999999997</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="S34">
-        <v>33200</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5963.0010000000002</v>
+        <v>1869.6959999999999</v>
       </c>
       <c r="U34">
-        <v>163.851</v>
+        <v>63.972999999999999</v>
       </c>
       <c r="V34">
-        <v>355.07</v>
+        <v>158.434</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-271.09899999999999</v>
+        <v>-129.054</v>
       </c>
       <c r="Y34">
-        <v>39.524000000000001</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>154.63399999999999</v>
+        <v>3.2839999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>118.157</v>
+        <v>36.030999999999999</v>
       </c>
       <c r="D35">
-        <v>1403.63</v>
+        <v>583.23400000000004</v>
       </c>
       <c r="E35">
-        <v>57.054000000000002</v>
+        <v>9.44</v>
       </c>
       <c r="F35">
-        <v>576.97900000000004</v>
+        <v>195.49299999999999</v>
       </c>
       <c r="G35">
-        <v>768.39499999999998</v>
+        <v>155.19800000000001</v>
       </c>
       <c r="H35">
-        <v>15761.093000000001</v>
+        <v>5846.1779999999999</v>
       </c>
       <c r="I35">
-        <v>66.665000000000006</v>
+        <v>68.584000000000003</v>
       </c>
       <c r="J35">
-        <v>5923.2979999999998</v>
+        <v>2760.9870000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3589,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2345.5889999999999</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3429.42</v>
+        <v>990.16099999999994</v>
       </c>
       <c r="O35">
-        <v>9855.7909999999993</v>
+        <v>4001.1239999999998</v>
       </c>
       <c r="P35">
-        <v>6781.6270000000004</v>
+        <v>2973.223</v>
       </c>
       <c r="Q35">
-        <v>140.857</v>
+        <v>1.728</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5905.3019999999997</v>
+        <v>1845.0540000000001</v>
       </c>
       <c r="U35">
-        <v>304.70800000000003</v>
+        <v>65.700999999999993</v>
       </c>
       <c r="V35">
-        <v>527.47</v>
+        <v>97.353999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-172.602</v>
+        <v>55.014000000000003</v>
       </c>
       <c r="Y35">
-        <v>227.423</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>118.157</v>
+        <v>36.030999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>240.19</v>
+        <v>128.18799999999999</v>
       </c>
       <c r="D36">
-        <v>1664.277</v>
+        <v>674.41099999999994</v>
       </c>
       <c r="E36">
-        <v>75.134</v>
+        <v>15.119</v>
       </c>
       <c r="F36">
-        <v>705.85299999999995</v>
+        <v>280.33999999999997</v>
       </c>
       <c r="G36">
-        <v>903.56399999999996</v>
+        <v>187.624</v>
       </c>
       <c r="H36">
-        <v>15965.977000000001</v>
+        <v>5892.643</v>
       </c>
       <c r="I36">
-        <v>75.775999999999996</v>
+        <v>66.960999999999999</v>
       </c>
       <c r="J36">
-        <v>5735.7030000000004</v>
+        <v>2726.7420000000002</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3675,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3582.5509999999999</v>
+        <v>913.11400000000003</v>
       </c>
       <c r="O36">
-        <v>9815.634</v>
+        <v>3881.1309999999999</v>
       </c>
       <c r="P36">
-        <v>6590.8720000000003</v>
+        <v>2910.8980000000001</v>
       </c>
       <c r="Q36">
-        <v>115.217</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6150.3429999999998</v>
+        <v>2011.5119999999999</v>
       </c>
       <c r="U36">
-        <v>419.92500000000001</v>
+        <v>68.694000000000003</v>
       </c>
       <c r="V36">
-        <v>513.75099999999998</v>
+        <v>120.735</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-202.99299999999999</v>
+        <v>-62.86</v>
       </c>
       <c r="Y36">
-        <v>224.96</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>240.19</v>
+        <v>128.18799999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>450.584</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="D37">
-        <v>1913.8510000000001</v>
+        <v>503.17099999999999</v>
       </c>
       <c r="E37">
-        <v>67.697999999999993</v>
+        <v>15.061999999999999</v>
       </c>
       <c r="F37">
-        <v>923.08699999999999</v>
+        <v>158.577</v>
       </c>
       <c r="G37">
-        <v>842.71600000000001</v>
+        <v>164.929</v>
       </c>
       <c r="H37">
-        <v>15938.896000000001</v>
+        <v>5938.4269999999997</v>
       </c>
       <c r="I37">
-        <v>72.150999999999996</v>
+        <v>79.126000000000005</v>
       </c>
       <c r="J37">
-        <v>5665.9979999999996</v>
+        <v>2764.12</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3758,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3399.5909999999999</v>
+        <v>945.08900000000006</v>
       </c>
       <c r="O37">
-        <v>9665.4719999999998</v>
+        <v>3919.643</v>
       </c>
       <c r="P37">
-        <v>6514.6909999999998</v>
+        <v>2985.3530000000001</v>
       </c>
       <c r="Q37">
-        <v>-12.667</v>
+        <v>-23.193999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="T37">
-        <v>6273.424</v>
+        <v>2018.7840000000001</v>
       </c>
       <c r="U37">
-        <v>407.25799999999998</v>
+        <v>45.5</v>
       </c>
       <c r="V37">
-        <v>405.82100000000003</v>
+        <v>22.071000000000002</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-216.827</v>
+        <v>28.72</v>
       </c>
       <c r="Y37">
-        <v>218.399</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>450.584</v>
+        <v>1.0529999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>121.297</v>
+        <v>-96.394999999999996</v>
       </c>
       <c r="D38">
-        <v>1480.6179999999999</v>
+        <v>527.63099999999997</v>
       </c>
       <c r="E38">
-        <v>75.108999999999995</v>
+        <v>13.387</v>
       </c>
       <c r="F38">
-        <v>593.19600000000003</v>
+        <v>164.94200000000001</v>
       </c>
       <c r="G38">
-        <v>730.14499999999998</v>
+        <v>206.767</v>
       </c>
       <c r="H38">
-        <v>16684.598999999998</v>
+        <v>5991.73</v>
       </c>
       <c r="I38">
-        <v>100.777</v>
+        <v>67.698999999999998</v>
       </c>
       <c r="J38">
-        <v>6048.384</v>
+        <v>2416.58</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3838,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-1172.6600000000001</v>
       </c>
       <c r="N38">
-        <v>3584.39</v>
+        <v>1046.1420000000001</v>
       </c>
       <c r="O38">
-        <v>10169.02</v>
+        <v>3590.1419999999998</v>
       </c>
       <c r="P38">
-        <v>7052.1009999999997</v>
+        <v>2638.3270000000002</v>
       </c>
       <c r="Q38">
-        <v>-154.38200000000001</v>
+        <v>35.701000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="S38">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>6515.5789999999997</v>
+        <v>2401.5880000000002</v>
       </c>
       <c r="U38">
-        <v>252.876</v>
+        <v>81.200999999999993</v>
       </c>
       <c r="V38">
-        <v>375.56299999999999</v>
+        <v>82.094999999999999</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>539.03399999999999</v>
+        <v>38.758000000000003</v>
       </c>
       <c r="Y38">
-        <v>216.05500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>121.297</v>
+        <v>-96.394999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1880.972</v>
+        <v>-8.8409999999999993</v>
       </c>
       <c r="D39">
-        <v>1246.8820000000001</v>
+        <v>644.43299999999999</v>
       </c>
       <c r="E39">
-        <v>96.277000000000001</v>
+        <v>16.37</v>
       </c>
       <c r="F39">
-        <v>252.62200000000001</v>
+        <v>223.35400000000001</v>
       </c>
       <c r="G39">
-        <v>1696.335</v>
+        <v>201.01900000000001</v>
       </c>
       <c r="H39">
-        <v>16462.508999999998</v>
+        <v>6588.6329999999998</v>
       </c>
       <c r="I39">
-        <v>364.21600000000001</v>
+        <v>97.1</v>
       </c>
       <c r="J39">
-        <v>8429.2199999999993</v>
+        <v>2918.5659999999998</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3921,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-181.53</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2959.7930000000001</v>
+        <v>1171.0830000000001</v>
       </c>
       <c r="O39">
-        <v>12087.855</v>
+        <v>4204.34</v>
       </c>
       <c r="P39">
-        <v>8843.0040000000008</v>
+        <v>3191.21</v>
       </c>
       <c r="Q39">
-        <v>1107.385</v>
+        <v>1.639</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4374.6540000000005</v>
+        <v>2384.2930000000001</v>
       </c>
       <c r="U39">
-        <v>1360.261</v>
+        <v>82.84</v>
       </c>
       <c r="V39">
-        <v>-52.701000000000001</v>
+        <v>170.685</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>1802.472</v>
+        <v>504.822</v>
       </c>
       <c r="Y39">
-        <v>208.32300000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1880.972</v>
+        <v>-8.8409999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-715.24300000000005</v>
+        <v>170.858</v>
       </c>
       <c r="D40">
-        <v>16.928999999999998</v>
+        <v>797.88499999999999</v>
       </c>
       <c r="E40">
-        <v>74.212999999999994</v>
+        <v>17.716999999999999</v>
       </c>
       <c r="F40">
-        <v>-284.72300000000001</v>
+        <v>341.78300000000002</v>
       </c>
       <c r="G40">
-        <v>2750.6680000000001</v>
+        <v>187.05099999999999</v>
       </c>
       <c r="H40">
-        <v>17528.059000000001</v>
+        <v>6605.549</v>
       </c>
       <c r="I40">
-        <v>484.92700000000002</v>
+        <v>98.558999999999997</v>
       </c>
       <c r="J40">
-        <v>10007.968000000001</v>
+        <v>2832.71</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4007,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2583.855</v>
+        <v>1077.7449999999999</v>
       </c>
       <c r="O40">
-        <v>13191.034</v>
+        <v>4030.6610000000001</v>
       </c>
       <c r="P40">
-        <v>10584.300999999999</v>
+        <v>3116.172</v>
       </c>
       <c r="Q40">
-        <v>899.68799999999999</v>
+        <v>-25.88</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4337.0249999999996</v>
+        <v>2574.8879999999999</v>
       </c>
       <c r="U40">
-        <v>2259.9490000000001</v>
+        <v>56.96</v>
       </c>
       <c r="V40">
-        <v>-1275.6790000000001</v>
+        <v>145.56299999999999</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>2288.4780000000001</v>
+        <v>-94.697999999999993</v>
       </c>
       <c r="Y40">
-        <v>200.49799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-715.24300000000005</v>
+        <v>170.858</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-677.36599999999999</v>
+        <v>36.091999999999999</v>
       </c>
       <c r="D41">
-        <v>6.5179999999999998</v>
+        <v>600.34500000000003</v>
       </c>
       <c r="E41">
-        <v>78.495999999999995</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="F41">
-        <v>-183.63900000000001</v>
+        <v>182.55600000000001</v>
       </c>
       <c r="G41">
-        <v>2652.4989999999998</v>
+        <v>182.92400000000001</v>
       </c>
       <c r="H41">
-        <v>17402.037</v>
+        <v>6650.9780000000001</v>
       </c>
       <c r="I41">
-        <v>116.464</v>
+        <v>86.787999999999997</v>
       </c>
       <c r="J41">
-        <v>10460.379000000001</v>
+        <v>2842.5880000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4090,2369 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2334.2660000000001</v>
+        <v>1075.4880000000001</v>
       </c>
       <c r="O41">
-        <v>13314.271000000001</v>
+        <v>4019.712</v>
       </c>
       <c r="P41">
-        <v>11157.584000000001</v>
+        <v>3130.87</v>
       </c>
       <c r="Q41">
-        <v>96.262</v>
+        <v>-0.49299999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="T41">
-        <v>4087.7660000000001</v>
+        <v>2631.2660000000001</v>
       </c>
       <c r="U41">
-        <v>2356.2109999999998</v>
+        <v>56.466999999999999</v>
       </c>
       <c r="V41">
-        <v>-590.24599999999998</v>
+        <v>76.938000000000002</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>835.89300000000003</v>
+        <v>-18.344999999999999</v>
       </c>
       <c r="Y41">
-        <v>193.084</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-677.36599999999999</v>
+        <v>36.091999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41729</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>51.267000000000003</v>
+      </c>
+      <c r="D42">
+        <v>664.02800000000002</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>218.11799999999999</v>
+      </c>
+      <c r="G42">
+        <v>187.22499999999999</v>
+      </c>
+      <c r="H42">
+        <v>7318.8990000000003</v>
+      </c>
+      <c r="I42">
+        <v>79.59</v>
+      </c>
+      <c r="J42">
+        <v>3292.2170000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-258.125</v>
+      </c>
+      <c r="N42">
+        <v>1256.8900000000001</v>
+      </c>
+      <c r="O42">
+        <v>4648.9340000000002</v>
+      </c>
+      <c r="P42">
+        <v>3658.5039999999999</v>
+      </c>
+      <c r="Q42">
+        <v>8.2929999999999993</v>
+      </c>
+      <c r="R42">
+        <v>41729</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2669.9650000000001</v>
+      </c>
+      <c r="U42">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="V42">
+        <v>228.13399999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>526.46900000000005</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>51.267000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>111.616</v>
+      </c>
+      <c r="D43">
+        <v>765.92700000000002</v>
+      </c>
+      <c r="E43">
+        <v>27.145</v>
+      </c>
+      <c r="F43">
+        <v>295.13099999999997</v>
+      </c>
+      <c r="G43">
+        <v>210.22399999999999</v>
+      </c>
+      <c r="H43">
+        <v>7314.8029999999999</v>
+      </c>
+      <c r="I43">
+        <v>102.755</v>
+      </c>
+      <c r="J43">
+        <v>3132.9180000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1379.9</v>
+      </c>
+      <c r="O43">
+        <v>4600.0219999999999</v>
+      </c>
+      <c r="P43">
+        <v>3509.03</v>
+      </c>
+      <c r="Q43">
+        <v>-1.2769999999999999</v>
+      </c>
+      <c r="R43">
+        <v>41820</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2714.7809999999999</v>
+      </c>
+      <c r="U43">
+        <v>63.482999999999997</v>
+      </c>
+      <c r="V43">
+        <v>290.97399999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-250.995</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>111.616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>201.078</v>
+      </c>
+      <c r="D44">
+        <v>907.01700000000005</v>
+      </c>
+      <c r="E44">
+        <v>25.936</v>
+      </c>
+      <c r="F44">
+        <v>395.71899999999999</v>
+      </c>
+      <c r="G44">
+        <v>190.636</v>
+      </c>
+      <c r="H44">
+        <v>7374.049</v>
+      </c>
+      <c r="I44">
+        <v>99.884</v>
+      </c>
+      <c r="J44">
+        <v>3082.346</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1303.0239999999999</v>
+      </c>
+      <c r="O44">
+        <v>4490.0649999999996</v>
+      </c>
+      <c r="P44">
+        <v>3463.9110000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-7.6139999999999999</v>
+      </c>
+      <c r="R44">
+        <v>41912</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2883.9839999999999</v>
+      </c>
+      <c r="U44">
+        <v>55.869</v>
+      </c>
+      <c r="V44">
+        <v>181.61600000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-111.959</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>201.078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-25.609000000000002</v>
+      </c>
+      <c r="D45">
+        <v>788.90899999999999</v>
+      </c>
+      <c r="E45">
+        <v>32.432000000000002</v>
+      </c>
+      <c r="F45">
+        <v>270.28899999999999</v>
+      </c>
+      <c r="G45">
+        <v>283.73500000000001</v>
+      </c>
+      <c r="H45">
+        <v>11468.995999999999</v>
+      </c>
+      <c r="I45">
+        <v>101.983</v>
+      </c>
+      <c r="J45">
+        <v>5506.18</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2086.5990000000002</v>
+      </c>
+      <c r="O45">
+        <v>7950.183</v>
+      </c>
+      <c r="P45">
+        <v>6092.6859999999997</v>
+      </c>
+      <c r="Q45">
+        <v>28.954999999999998</v>
+      </c>
+      <c r="R45">
+        <v>42004</v>
+      </c>
+      <c r="S45">
+        <v>24900</v>
+      </c>
+      <c r="T45">
+        <v>3518.8130000000001</v>
+      </c>
+      <c r="U45">
+        <v>84.823999999999998</v>
+      </c>
+      <c r="V45">
+        <v>-65.123000000000005</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1025.9010000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>-25.609000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-21.456</v>
+      </c>
+      <c r="D46">
+        <v>938.18200000000002</v>
+      </c>
+      <c r="E46">
+        <v>30.957999999999998</v>
+      </c>
+      <c r="F46">
+        <v>314.48200000000003</v>
+      </c>
+      <c r="G46">
+        <v>324.62599999999998</v>
+      </c>
+      <c r="H46">
+        <v>11592.736999999999</v>
+      </c>
+      <c r="I46">
+        <v>84.769000000000005</v>
+      </c>
+      <c r="J46">
+        <v>5383.94</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-477.22399999999999</v>
+      </c>
+      <c r="N46">
+        <v>2373.7739999999999</v>
+      </c>
+      <c r="O46">
+        <v>8113.3450000000003</v>
+      </c>
+      <c r="P46">
+        <v>5970.3029999999999</v>
+      </c>
+      <c r="Q46">
+        <v>36.597999999999999</v>
+      </c>
+      <c r="R46">
+        <v>42094</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3479.3919999999998</v>
+      </c>
+      <c r="U46">
+        <v>121.422</v>
+      </c>
+      <c r="V46">
+        <v>314.79000000000002</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-205.06100000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>-21.456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>158.494</v>
+      </c>
+      <c r="D47">
+        <v>1085.433</v>
+      </c>
+      <c r="E47">
+        <v>36.801000000000002</v>
+      </c>
+      <c r="F47">
+        <v>429.154</v>
+      </c>
+      <c r="G47">
+        <v>399.91699999999997</v>
+      </c>
+      <c r="H47">
+        <v>11687.387000000001</v>
+      </c>
+      <c r="I47">
+        <v>55.061</v>
+      </c>
+      <c r="J47">
+        <v>5182.1580000000004</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2474.0880000000002</v>
+      </c>
+      <c r="O47">
+        <v>7946.9319999999998</v>
+      </c>
+      <c r="P47">
+        <v>5774.1329999999998</v>
+      </c>
+      <c r="Q47">
+        <v>51.536000000000001</v>
+      </c>
+      <c r="R47">
+        <v>42185</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3740.4549999999999</v>
+      </c>
+      <c r="U47">
+        <v>172.958</v>
+      </c>
+      <c r="V47">
+        <v>396.90499999999997</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-213.44399999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>158.494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>251.78700000000001</v>
+      </c>
+      <c r="D48">
+        <v>1284.9100000000001</v>
+      </c>
+      <c r="E48">
+        <v>41.994999999999997</v>
+      </c>
+      <c r="F48">
+        <v>570.50699999999995</v>
+      </c>
+      <c r="G48">
+        <v>441.19600000000003</v>
+      </c>
+      <c r="H48">
+        <v>11747.165000000001</v>
+      </c>
+      <c r="I48">
+        <v>44.262</v>
+      </c>
+      <c r="J48">
+        <v>5101.634</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2431.2820000000002</v>
+      </c>
+      <c r="O48">
+        <v>7828.2709999999997</v>
+      </c>
+      <c r="P48">
+        <v>5694.7640000000001</v>
+      </c>
+      <c r="Q48">
+        <v>57.222000000000001</v>
+      </c>
+      <c r="R48">
+        <v>42277</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3918.8939999999998</v>
+      </c>
+      <c r="U48">
+        <v>230.18</v>
+      </c>
+      <c r="V48">
+        <v>261.69099999999997</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-79.057000000000002</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>251.78700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>38.311999999999998</v>
+      </c>
+      <c r="D49">
+        <v>1036.5229999999999</v>
+      </c>
+      <c r="E49">
+        <v>44.996000000000002</v>
+      </c>
+      <c r="F49">
+        <v>375.45600000000002</v>
+      </c>
+      <c r="G49">
+        <v>340.411</v>
+      </c>
+      <c r="H49">
+        <v>12264.757</v>
+      </c>
+      <c r="I49">
+        <v>45.488</v>
+      </c>
+      <c r="J49">
+        <v>5771.0919999999996</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2366.5189999999998</v>
+      </c>
+      <c r="O49">
+        <v>8483.8770000000004</v>
+      </c>
+      <c r="P49">
+        <v>6405.0110000000004</v>
+      </c>
+      <c r="Q49">
+        <v>-114.24299999999999</v>
+      </c>
+      <c r="R49">
+        <v>42369</v>
+      </c>
+      <c r="S49">
+        <v>26500</v>
+      </c>
+      <c r="T49">
+        <v>3780.88</v>
+      </c>
+      <c r="U49">
+        <v>115.937</v>
+      </c>
+      <c r="V49">
+        <v>68.792000000000002</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>692.75</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>38.311999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>73.228999999999999</v>
+      </c>
+      <c r="D50">
+        <v>1077.6320000000001</v>
+      </c>
+      <c r="E50">
+        <v>45.613</v>
+      </c>
+      <c r="F50">
+        <v>413.15100000000001</v>
+      </c>
+      <c r="G50">
+        <v>392.916</v>
+      </c>
+      <c r="H50">
+        <v>12405.739</v>
+      </c>
+      <c r="I50">
+        <v>54.25</v>
+      </c>
+      <c r="J50">
+        <v>5674.634</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-308.24799999999999</v>
+      </c>
+      <c r="N50">
+        <v>2490.0889999999999</v>
+      </c>
+      <c r="O50">
+        <v>8478.1280000000006</v>
+      </c>
+      <c r="P50">
+        <v>6308.4690000000001</v>
+      </c>
+      <c r="Q50">
+        <v>38.93</v>
+      </c>
+      <c r="R50">
+        <v>42460</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3927.6109999999999</v>
+      </c>
+      <c r="U50">
+        <v>154.86699999999999</v>
+      </c>
+      <c r="V50">
+        <v>330.096</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-157.97200000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>73.228999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>145.24600000000001</v>
+      </c>
+      <c r="D51">
+        <v>1186.835</v>
+      </c>
+      <c r="E51">
+        <v>60.366</v>
+      </c>
+      <c r="F51">
+        <v>480.935</v>
+      </c>
+      <c r="G51">
+        <v>440.03</v>
+      </c>
+      <c r="H51">
+        <v>12957.749</v>
+      </c>
+      <c r="I51">
+        <v>46.511000000000003</v>
+      </c>
+      <c r="J51">
+        <v>5975.116</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2592.2640000000001</v>
+      </c>
+      <c r="O51">
+        <v>8839.3880000000008</v>
+      </c>
+      <c r="P51">
+        <v>6561.2479999999996</v>
+      </c>
+      <c r="Q51">
+        <v>-8.9030000000000005</v>
+      </c>
+      <c r="R51">
+        <v>42551</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4118.3609999999999</v>
+      </c>
+      <c r="U51">
+        <v>145.964</v>
+      </c>
+      <c r="V51">
+        <v>417.94200000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>238.989</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>145.24600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>342.37799999999999</v>
+      </c>
+      <c r="D52">
+        <v>1484.7360000000001</v>
+      </c>
+      <c r="E52">
+        <v>55.838000000000001</v>
+      </c>
+      <c r="F52">
+        <v>700.00199999999995</v>
+      </c>
+      <c r="G52">
+        <v>436.69900000000001</v>
+      </c>
+      <c r="H52">
+        <v>12943.34</v>
+      </c>
+      <c r="I52">
+        <v>51.494</v>
+      </c>
+      <c r="J52">
+        <v>5817.8419999999996</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2348.989</v>
+      </c>
+      <c r="O52">
+        <v>8406.6129999999994</v>
+      </c>
+      <c r="P52">
+        <v>6388.6109999999999</v>
+      </c>
+      <c r="Q52">
+        <v>9.4670000000000005</v>
+      </c>
+      <c r="R52">
+        <v>42643</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4536.7269999999999</v>
+      </c>
+      <c r="U52">
+        <v>155.43100000000001</v>
+      </c>
+      <c r="V52">
+        <v>340.721</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-180.04599999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>342.37799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>72.231999999999999</v>
+      </c>
+      <c r="D53">
+        <v>1125.1369999999999</v>
+      </c>
+      <c r="E53">
+        <v>63.215000000000003</v>
+      </c>
+      <c r="F53">
+        <v>430.02699999999999</v>
+      </c>
+      <c r="G53">
+        <v>411.09300000000002</v>
+      </c>
+      <c r="H53">
+        <v>12973.911</v>
+      </c>
+      <c r="I53">
+        <v>38.002000000000002</v>
+      </c>
+      <c r="J53">
+        <v>5839.6450000000004</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2312.8180000000002</v>
+      </c>
+      <c r="O53">
+        <v>8436.1849999999995</v>
+      </c>
+      <c r="P53">
+        <v>6403.1689999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-27.084</v>
+      </c>
+      <c r="R53">
+        <v>42735</v>
+      </c>
+      <c r="S53">
+        <v>30000</v>
+      </c>
+      <c r="T53">
+        <v>4537.7259999999997</v>
+      </c>
+      <c r="U53">
+        <v>128.34700000000001</v>
+      </c>
+      <c r="V53">
+        <v>150.90700000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>72.231999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>61.91</v>
+      </c>
+      <c r="D54">
+        <v>1150.7809999999999</v>
+      </c>
+      <c r="E54">
+        <v>47.948999999999998</v>
+      </c>
+      <c r="F54">
+        <v>430.983</v>
+      </c>
+      <c r="G54">
+        <v>488.351</v>
+      </c>
+      <c r="H54">
+        <v>13076.251</v>
+      </c>
+      <c r="I54">
+        <v>71.123000000000005</v>
+      </c>
+      <c r="J54">
+        <v>5644.6279999999997</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-465.23700000000002</v>
+      </c>
+      <c r="N54">
+        <v>2506.759</v>
+      </c>
+      <c r="O54">
+        <v>8450.9689999999991</v>
+      </c>
+      <c r="P54">
+        <v>6179.2920000000004</v>
+      </c>
+      <c r="Q54">
+        <v>91.441999999999993</v>
+      </c>
+      <c r="R54">
+        <v>42825</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4625.2820000000002</v>
+      </c>
+      <c r="U54">
+        <v>219.78899999999999</v>
+      </c>
+      <c r="V54">
+        <v>434.94400000000002</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-225.72499999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>61.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>198.47300000000001</v>
+      </c>
+      <c r="D55">
+        <v>1344.1030000000001</v>
+      </c>
+      <c r="E55">
+        <v>50.359000000000002</v>
+      </c>
+      <c r="F55">
+        <v>591.86099999999999</v>
+      </c>
+      <c r="G55">
+        <v>513.91600000000005</v>
+      </c>
+      <c r="H55">
+        <v>13946.175999999999</v>
+      </c>
+      <c r="I55">
+        <v>47.241999999999997</v>
+      </c>
+      <c r="J55">
+        <v>6083.2259999999997</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2654.127</v>
+      </c>
+      <c r="O55">
+        <v>8954.4269999999997</v>
+      </c>
+      <c r="P55">
+        <v>6686.2719999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-0.47399999999999998</v>
+      </c>
+      <c r="R55">
+        <v>42916</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4991.7489999999998</v>
+      </c>
+      <c r="U55">
+        <v>219.315</v>
+      </c>
+      <c r="V55">
+        <v>484.78699999999998</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>497.48200000000003</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>198.47300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>400.69200000000001</v>
+      </c>
+      <c r="D56">
+        <v>1651.7380000000001</v>
+      </c>
+      <c r="E56">
+        <v>56.764000000000003</v>
+      </c>
+      <c r="F56">
+        <v>813.57299999999998</v>
+      </c>
+      <c r="G56">
+        <v>864.83399999999995</v>
+      </c>
+      <c r="H56">
+        <v>14265.117</v>
+      </c>
+      <c r="I56">
+        <v>45.058999999999997</v>
+      </c>
+      <c r="J56">
+        <v>6002.8770000000004</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2528.6619999999998</v>
+      </c>
+      <c r="O56">
+        <v>8727.5130000000008</v>
+      </c>
+      <c r="P56">
+        <v>6610.58</v>
+      </c>
+      <c r="Q56">
+        <v>303.589</v>
+      </c>
+      <c r="R56">
+        <v>43008</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5537.6040000000003</v>
+      </c>
+      <c r="U56">
+        <v>522.904</v>
+      </c>
+      <c r="V56">
+        <v>439.90699999999998</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-72.069000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>400.69200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>98.796999999999997</v>
+      </c>
+      <c r="D57">
+        <v>1249.5530000000001</v>
+      </c>
+      <c r="E57">
+        <v>43.960999999999999</v>
+      </c>
+      <c r="F57">
+        <v>496.11399999999998</v>
+      </c>
+      <c r="G57">
+        <v>518.33699999999999</v>
+      </c>
+      <c r="H57">
+        <v>14094.869000000001</v>
+      </c>
+      <c r="I57">
+        <v>53.433</v>
+      </c>
+      <c r="J57">
+        <v>5643.009</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2490.0210000000002</v>
+      </c>
+      <c r="O57">
+        <v>8345.1029999999992</v>
+      </c>
+      <c r="P57">
+        <v>6308.7849999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-346.714</v>
+      </c>
+      <c r="R57">
+        <v>43100</v>
+      </c>
+      <c r="S57">
+        <v>31000</v>
+      </c>
+      <c r="T57">
+        <v>5749.7659999999996</v>
+      </c>
+      <c r="U57">
+        <v>176.19</v>
+      </c>
+      <c r="V57">
+        <v>241.60900000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-348.19400000000002</v>
+      </c>
+      <c r="Y57">
+        <v>45.383000000000003</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>98.796999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>103.155</v>
+      </c>
+      <c r="D58">
+        <v>1293.403</v>
+      </c>
+      <c r="E58">
+        <v>41.158999999999999</v>
+      </c>
+      <c r="F58">
+        <v>525.31200000000001</v>
+      </c>
+      <c r="G58">
+        <v>760.77499999999998</v>
+      </c>
+      <c r="H58">
+        <v>14484.985000000001</v>
+      </c>
+      <c r="I58">
+        <v>65.572999999999993</v>
+      </c>
+      <c r="J58">
+        <v>5580.29</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-252.82599999999999</v>
+      </c>
+      <c r="N58">
+        <v>3093.5430000000001</v>
+      </c>
+      <c r="O58">
+        <v>8845.9120000000003</v>
+      </c>
+      <c r="P58">
+        <v>6352.8090000000002</v>
+      </c>
+      <c r="Q58">
+        <v>125.55800000000001</v>
+      </c>
+      <c r="R58">
+        <v>43190</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5639.0730000000003</v>
+      </c>
+      <c r="U58">
+        <v>301.74799999999999</v>
+      </c>
+      <c r="V58">
+        <v>610.76099999999997</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-341.57799999999997</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>103.155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>226.67599999999999</v>
+      </c>
+      <c r="D59">
+        <v>1522.174</v>
+      </c>
+      <c r="E59">
+        <v>44.212000000000003</v>
+      </c>
+      <c r="F59">
+        <v>659.39099999999996</v>
+      </c>
+      <c r="G59">
+        <v>671.49</v>
+      </c>
+      <c r="H59">
+        <v>15329.646000000001</v>
+      </c>
+      <c r="I59">
+        <v>54.676000000000002</v>
+      </c>
+      <c r="J59">
+        <v>6149.2209999999995</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3306.165</v>
+      </c>
+      <c r="O59">
+        <v>9642.8529999999992</v>
+      </c>
+      <c r="P59">
+        <v>6828.9880000000003</v>
+      </c>
+      <c r="Q59">
+        <v>-96.741</v>
+      </c>
+      <c r="R59">
+        <v>43281</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5686.7929999999997</v>
+      </c>
+      <c r="U59">
+        <v>205.00700000000001</v>
+      </c>
+      <c r="V59">
+        <v>643.04</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>302.73099999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>226.67599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>470.37799999999999</v>
+      </c>
+      <c r="D60">
+        <v>1858.356</v>
+      </c>
+      <c r="E60">
+        <v>46.561999999999998</v>
+      </c>
+      <c r="F60">
+        <v>929.41200000000003</v>
+      </c>
+      <c r="G60">
+        <v>727.40800000000002</v>
+      </c>
+      <c r="H60">
+        <v>15316.121999999999</v>
+      </c>
+      <c r="I60">
+        <v>59.423000000000002</v>
+      </c>
+      <c r="J60">
+        <v>5875.2520000000004</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3052.1790000000001</v>
+      </c>
+      <c r="O60">
+        <v>9118.0319999999992</v>
+      </c>
+      <c r="P60">
+        <v>6555.16</v>
+      </c>
+      <c r="Q60">
+        <v>81.453999999999994</v>
+      </c>
+      <c r="R60">
+        <v>43373</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6198.09</v>
+      </c>
+      <c r="U60">
+        <v>286.46100000000001</v>
+      </c>
+      <c r="V60">
+        <v>466.3</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-274.85599999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>470.37799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>154.63399999999999</v>
+      </c>
+      <c r="D61">
+        <v>1381.193</v>
+      </c>
+      <c r="E61">
+        <v>55.249000000000002</v>
+      </c>
+      <c r="F61">
+        <v>563.93499999999995</v>
+      </c>
+      <c r="G61">
+        <v>550.31299999999999</v>
+      </c>
+      <c r="H61">
+        <v>15205.97</v>
+      </c>
+      <c r="I61">
+        <v>159.56399999999999</v>
+      </c>
+      <c r="J61">
+        <v>5771.3490000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3150.5</v>
+      </c>
+      <c r="O61">
+        <v>9242.9689999999991</v>
+      </c>
+      <c r="P61">
+        <v>6492.0910000000003</v>
+      </c>
+      <c r="Q61">
+        <v>-122.61</v>
+      </c>
+      <c r="R61">
+        <v>43465</v>
+      </c>
+      <c r="S61">
+        <v>33200</v>
+      </c>
+      <c r="T61">
+        <v>5963.0010000000002</v>
+      </c>
+      <c r="U61">
+        <v>163.851</v>
+      </c>
+      <c r="V61">
+        <v>355.07</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-271.09899999999999</v>
+      </c>
+      <c r="Y61">
+        <v>39.524000000000001</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>154.63399999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>118.157</v>
+      </c>
+      <c r="D62">
+        <v>1403.63</v>
+      </c>
+      <c r="E62">
+        <v>57.054000000000002</v>
+      </c>
+      <c r="F62">
+        <v>576.97900000000004</v>
+      </c>
+      <c r="G62">
+        <v>768.39499999999998</v>
+      </c>
+      <c r="H62">
+        <v>15761.093000000001</v>
+      </c>
+      <c r="I62">
+        <v>66.665000000000006</v>
+      </c>
+      <c r="J62">
+        <v>5923.2979999999998</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-2345.5889999999999</v>
+      </c>
+      <c r="N62">
+        <v>3429.42</v>
+      </c>
+      <c r="O62">
+        <v>9855.7909999999993</v>
+      </c>
+      <c r="P62">
+        <v>6781.6270000000004</v>
+      </c>
+      <c r="Q62">
+        <v>140.857</v>
+      </c>
+      <c r="R62">
+        <v>43555</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>5905.3019999999997</v>
+      </c>
+      <c r="U62">
+        <v>304.70800000000003</v>
+      </c>
+      <c r="V62">
+        <v>527.47</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-172.602</v>
+      </c>
+      <c r="Y62">
+        <v>227.423</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>118.157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>240.19</v>
+      </c>
+      <c r="D63">
+        <v>1664.277</v>
+      </c>
+      <c r="E63">
+        <v>75.134</v>
+      </c>
+      <c r="F63">
+        <v>705.85299999999995</v>
+      </c>
+      <c r="G63">
+        <v>903.56399999999996</v>
+      </c>
+      <c r="H63">
+        <v>15965.977000000001</v>
+      </c>
+      <c r="I63">
+        <v>75.775999999999996</v>
+      </c>
+      <c r="J63">
+        <v>5735.7030000000004</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3582.5509999999999</v>
+      </c>
+      <c r="O63">
+        <v>9815.634</v>
+      </c>
+      <c r="P63">
+        <v>6590.8720000000003</v>
+      </c>
+      <c r="Q63">
+        <v>115.217</v>
+      </c>
+      <c r="R63">
+        <v>43646</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>6150.3429999999998</v>
+      </c>
+      <c r="U63">
+        <v>419.92500000000001</v>
+      </c>
+      <c r="V63">
+        <v>513.75099999999998</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-202.99299999999999</v>
+      </c>
+      <c r="Y63">
+        <v>224.96</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>240.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>450.584</v>
+      </c>
+      <c r="D64">
+        <v>1913.8510000000001</v>
+      </c>
+      <c r="E64">
+        <v>67.697999999999993</v>
+      </c>
+      <c r="F64">
+        <v>923.08699999999999</v>
+      </c>
+      <c r="G64">
+        <v>842.71600000000001</v>
+      </c>
+      <c r="H64">
+        <v>15938.896000000001</v>
+      </c>
+      <c r="I64">
+        <v>72.150999999999996</v>
+      </c>
+      <c r="J64">
+        <v>5665.9979999999996</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3399.5909999999999</v>
+      </c>
+      <c r="O64">
+        <v>9665.4719999999998</v>
+      </c>
+      <c r="P64">
+        <v>6514.6909999999998</v>
+      </c>
+      <c r="Q64">
+        <v>-12.667</v>
+      </c>
+      <c r="R64">
+        <v>43738</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6273.424</v>
+      </c>
+      <c r="U64">
+        <v>407.25799999999998</v>
+      </c>
+      <c r="V64">
+        <v>405.82100000000003</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-216.827</v>
+      </c>
+      <c r="Y64">
+        <v>218.399</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>450.584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>121.297</v>
+      </c>
+      <c r="D65">
+        <v>1480.6179999999999</v>
+      </c>
+      <c r="E65">
+        <v>75.108999999999995</v>
+      </c>
+      <c r="F65">
+        <v>593.19600000000003</v>
+      </c>
+      <c r="G65">
+        <v>730.14499999999998</v>
+      </c>
+      <c r="H65">
+        <v>16684.598999999998</v>
+      </c>
+      <c r="I65">
+        <v>100.777</v>
+      </c>
+      <c r="J65">
+        <v>6048.384</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3584.39</v>
+      </c>
+      <c r="O65">
+        <v>10169.02</v>
+      </c>
+      <c r="P65">
+        <v>7052.1009999999997</v>
+      </c>
+      <c r="Q65">
+        <v>-154.38200000000001</v>
+      </c>
+      <c r="R65">
+        <v>43830</v>
+      </c>
+      <c r="S65">
+        <v>36000</v>
+      </c>
+      <c r="T65">
+        <v>6515.5789999999997</v>
+      </c>
+      <c r="U65">
+        <v>252.876</v>
+      </c>
+      <c r="V65">
+        <v>375.56299999999999</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>539.03399999999999</v>
+      </c>
+      <c r="Y65">
+        <v>216.05500000000001</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>121.297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-1880.972</v>
+      </c>
+      <c r="D66">
+        <v>1246.8820000000001</v>
+      </c>
+      <c r="E66">
+        <v>96.277000000000001</v>
+      </c>
+      <c r="F66">
+        <v>252.62200000000001</v>
+      </c>
+      <c r="G66">
+        <v>1696.335</v>
+      </c>
+      <c r="H66">
+        <v>16462.508999999998</v>
+      </c>
+      <c r="I66">
+        <v>364.21600000000001</v>
+      </c>
+      <c r="J66">
+        <v>8429.2199999999993</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-181.53</v>
+      </c>
+      <c r="N66">
+        <v>2959.7930000000001</v>
+      </c>
+      <c r="O66">
+        <v>12087.855</v>
+      </c>
+      <c r="P66">
+        <v>8843.0040000000008</v>
+      </c>
+      <c r="Q66">
+        <v>1107.385</v>
+      </c>
+      <c r="R66">
+        <v>43921</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4374.6540000000005</v>
+      </c>
+      <c r="U66">
+        <v>1360.261</v>
+      </c>
+      <c r="V66">
+        <v>-52.701000000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1802.472</v>
+      </c>
+      <c r="Y66">
+        <v>208.32300000000001</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-1880.972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-715.24300000000005</v>
+      </c>
+      <c r="D67">
+        <v>16.928999999999998</v>
+      </c>
+      <c r="E67">
+        <v>74.212999999999994</v>
+      </c>
+      <c r="F67">
+        <v>-284.72300000000001</v>
+      </c>
+      <c r="G67">
+        <v>2750.6680000000001</v>
+      </c>
+      <c r="H67">
+        <v>17528.059000000001</v>
+      </c>
+      <c r="I67">
+        <v>484.92700000000002</v>
+      </c>
+      <c r="J67">
+        <v>10007.968000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2583.855</v>
+      </c>
+      <c r="O67">
+        <v>13191.034</v>
+      </c>
+      <c r="P67">
+        <v>10584.300999999999</v>
+      </c>
+      <c r="Q67">
+        <v>899.68799999999999</v>
+      </c>
+      <c r="R67">
+        <v>44012</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4337.0249999999996</v>
+      </c>
+      <c r="U67">
+        <v>2259.9490000000001</v>
+      </c>
+      <c r="V67">
+        <v>-1275.6790000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>2288.4780000000001</v>
+      </c>
+      <c r="Y67">
+        <v>200.49799999999999</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>-715.24300000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-677.36599999999999</v>
+      </c>
+      <c r="D68">
+        <v>6.5179999999999998</v>
+      </c>
+      <c r="E68">
+        <v>78.495999999999995</v>
+      </c>
+      <c r="F68">
+        <v>-183.63900000000001</v>
+      </c>
+      <c r="G68">
+        <v>2652.4989999999998</v>
+      </c>
+      <c r="H68">
+        <v>17402.037</v>
+      </c>
+      <c r="I68">
+        <v>116.464</v>
+      </c>
+      <c r="J68">
+        <v>10460.379000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2334.2660000000001</v>
+      </c>
+      <c r="O68">
+        <v>13314.271000000001</v>
+      </c>
+      <c r="P68">
+        <v>11157.584000000001</v>
+      </c>
+      <c r="Q68">
+        <v>96.262</v>
+      </c>
+      <c r="R68">
+        <v>44104</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4087.7660000000001</v>
+      </c>
+      <c r="U68">
+        <v>2356.2109999999998</v>
+      </c>
+      <c r="V68">
+        <v>-590.24599999999998</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>835.89300000000003</v>
+      </c>
+      <c r="Y68">
+        <v>193.084</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>-677.36599999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
         <v>-738.93299999999999</v>
       </c>
-      <c r="D42">
+      <c r="D69">
         <v>9.5790000000000006</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>20.577999999999999</v>
       </c>
-      <c r="F42">
+      <c r="F69">
         <v>-197.41300000000001</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>3557.5439999999999</v>
       </c>
-      <c r="H42">
+      <c r="H69">
         <v>18399.316999999999</v>
       </c>
-      <c r="I42">
+      <c r="I69">
         <v>83.135999999999996</v>
       </c>
-      <c r="J42">
+      <c r="J69">
         <v>11677.038</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>1913.903</v>
       </c>
-      <c r="O42">
+      <c r="O69">
         <v>14045.212</v>
       </c>
-      <c r="P42">
+      <c r="P69">
         <v>12016.460999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q69">
         <v>944.27099999999996</v>
       </c>
-      <c r="R42">
+      <c r="R69">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S69">
         <v>34300</v>
       </c>
-      <c r="T42">
+      <c r="T69">
         <v>4354.1049999999996</v>
       </c>
-      <c r="U42">
+      <c r="U69">
         <v>3300.482</v>
       </c>
-      <c r="V42">
+      <c r="V69">
         <v>-637.61699999999996</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
         <v>1652.3679999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y69">
         <v>190.06200000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>-738.93299999999999</v>
       </c>
     </row>
